--- a/Költségvetési kalkuláció.xlsx
+++ b/Költségvetési kalkuláció.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Niganyok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programozás\Niganyok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52A47509-7489-4338-A5DE-3323728D4F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -231,7 +230,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;Ft&quot;"/>
   </numFmts>
@@ -602,18 +601,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -627,22 +614,42 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -652,29 +659,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="2" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -893,11 +892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -909,79 +908,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="39" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="23">
+      <c r="B3" s="24"/>
+      <c r="C3" s="38">
         <f>DATE(2024,4,29)</f>
         <v>45411</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26">
-        <f>DATE(2024,5,12)</f>
-        <v>45424</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30">
+        <f>DATE(2024,5,25)</f>
+        <v>45437</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="12" customHeight="1">
@@ -993,46 +992,46 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="38"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="8">
         <v>44</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="9">
         <v>190635</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="12">
         <f>SUM(B11*C11)</f>
         <v>8387940</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1044,49 +1043,49 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="38"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="8">
         <v>44</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="9">
         <v>29990</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="12">
         <f>SUM(B17*C17)</f>
         <v>1319560</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1095,353 +1094,353 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="12" customHeight="1">
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="38"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="8">
         <v>3</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="9">
         <v>171265</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="12">
         <f>SUM(B23*C23)</f>
         <v>513795</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="8">
         <v>2</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="9">
         <v>202331</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="12">
         <f>SUM(B25*C25)</f>
         <v>404662</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="8">
         <v>2</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="9">
         <v>45145</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="12">
         <f>SUM(B27*C27)</f>
         <v>90290</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="8">
         <v>2</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="9">
         <v>244890</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="12">
         <f>SUM(B29*C29)</f>
         <v>489780</v>
       </c>
-      <c r="E29" s="17"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="12">
         <f>SUM(D23+D27+D29+D25)</f>
         <v>1498527</v>
       </c>
-      <c r="E30" s="17"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="12.75" customHeight="1">
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1">
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="10.5" customHeight="1">
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="38"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="8">
         <v>1400</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="9">
         <v>278.13</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="12">
         <f t="shared" ref="D37:D38" si="0">SUM(B37*C37)</f>
         <v>389382</v>
       </c>
-      <c r="E37" s="17"/>
+      <c r="E37" s="13"/>
       <c r="F37" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="8">
         <v>170</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="9">
         <v>1490</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="12">
         <f t="shared" si="0"/>
         <v>253300</v>
       </c>
-      <c r="E38" s="17"/>
+      <c r="E38" s="13"/>
       <c r="F38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16">
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="12">
         <f>SUM(D37:D38)</f>
         <v>642682</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" ht="12.75" customHeight="1">
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1">
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="38"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="8">
         <v>170</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="9">
         <v>21.8</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="12">
         <f t="shared" ref="D44:D45" si="1">SUM(B44*C44)</f>
         <v>3706</v>
       </c>
-      <c r="E44" s="17"/>
+      <c r="E44" s="13"/>
       <c r="F44" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="8">
         <v>170</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="9">
         <v>175</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="12">
         <f t="shared" si="1"/>
         <v>29750</v>
       </c>
-      <c r="E45" s="17"/>
+      <c r="E45" s="13"/>
       <c r="F45" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="16">
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="12">
         <f>SUM(D44:D45)</f>
         <v>33456</v>
       </c>
-      <c r="E46" s="17"/>
+      <c r="E46" s="13"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" ht="11.25" customHeight="1">
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="13.5" customHeight="1">
@@ -1453,102 +1452,102 @@
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="38"/>
+      <c r="E50" s="17"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="8">
         <v>150</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="9">
         <v>283</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="12">
         <f t="shared" ref="D51:D53" si="2">SUM(B51*C51)</f>
         <v>42450</v>
       </c>
-      <c r="E51" s="17"/>
+      <c r="E51" s="13"/>
       <c r="F51" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="8">
         <v>40</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="9">
         <v>234</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="12">
         <f t="shared" si="2"/>
         <v>9360</v>
       </c>
-      <c r="E52" s="17"/>
+      <c r="E52" s="13"/>
       <c r="F52" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="8">
         <v>30</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="9">
         <v>1376</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="12">
         <f t="shared" si="2"/>
         <v>41280</v>
       </c>
-      <c r="E53" s="17"/>
+      <c r="E53" s="13"/>
       <c r="F53" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="16">
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="12">
         <f>SUM(D51:D53)</f>
         <v>93090</v>
       </c>
-      <c r="E54" s="17"/>
+      <c r="E54" s="13"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1">
@@ -1560,36 +1559,36 @@
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="D58" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="38"/>
+      <c r="E58" s="17"/>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="8">
         <v>110</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="9">
         <v>13</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="12">
         <f>SUM(B59*C59)</f>
         <v>1430</v>
       </c>
-      <c r="E59" s="17"/>
+      <c r="E59" s="13"/>
       <c r="F59" s="1" t="s">
         <v>51</v>
       </c>
@@ -1598,13 +1597,13 @@
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
@@ -1616,36 +1615,36 @@
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A63" s="36" t="s">
+      <c r="A63" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="37" t="s">
+      <c r="D63" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="38"/>
+      <c r="E63" s="17"/>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="14">
+      <c r="B64" s="8">
         <v>10</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="9">
         <v>5490</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D64" s="12">
         <f>SUM(B64*C64)</f>
         <v>54900</v>
       </c>
-      <c r="E64" s="17"/>
+      <c r="E64" s="13"/>
       <c r="F64" s="1" t="s">
         <v>54</v>
       </c>
@@ -1654,13 +1653,13 @@
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1">
@@ -1672,36 +1671,36 @@
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="37" t="s">
+      <c r="D68" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="38"/>
+      <c r="E68" s="17"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B69" s="8">
         <v>80</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="9">
         <v>410</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D69" s="12">
         <f>SUM(B69*C69)</f>
         <v>32800</v>
       </c>
-      <c r="E69" s="17"/>
+      <c r="E69" s="13"/>
       <c r="F69" s="1" t="s">
         <v>57</v>
       </c>
@@ -1710,49 +1709,49 @@
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1">
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="37" t="s">
+      <c r="D73" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="38"/>
+      <c r="E73" s="17"/>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B74" s="14">
+      <c r="B74" s="8">
         <v>50</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="9">
         <v>4132</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D74" s="12">
         <f>SUM(B74*C74)</f>
         <v>206600</v>
       </c>
-      <c r="E74" s="17"/>
+      <c r="E74" s="13"/>
       <c r="F74" s="1" t="s">
         <v>60</v>
       </c>
@@ -1764,35 +1763,35 @@
       <c r="F76" s="4"/>
     </row>
     <row r="77" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="32"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="22"/>
       <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="29">
+      <c r="B78" s="24"/>
+      <c r="C78" s="25">
         <f>SUM(D74,D69,D64,D59,D54,D46,D39,D30,D17,D11)</f>
         <v>12270985</v>
       </c>
-      <c r="D78" s="21"/>
-      <c r="E78" s="22"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="27"/>
       <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="80" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A80" s="6"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
     </row>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
@@ -2740,7 +2739,6 @@
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:E78"/>
     <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="A56:E56"/>
@@ -2755,33 +2753,34 @@
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="A41:E41"/>
     <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F23" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F25" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F27" r:id="rId5" location="termek-leiras" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F29" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F37" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F38" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F44" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F45" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F51" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F53" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F59" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F64" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F69" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F74" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F11" r:id="rId1"/>
+    <hyperlink ref="F17" r:id="rId2"/>
+    <hyperlink ref="F23" r:id="rId3"/>
+    <hyperlink ref="F25" r:id="rId4"/>
+    <hyperlink ref="F27" r:id="rId5" location="termek-leiras"/>
+    <hyperlink ref="F29" r:id="rId6"/>
+    <hyperlink ref="F37" r:id="rId7"/>
+    <hyperlink ref="F38" r:id="rId8"/>
+    <hyperlink ref="F44" r:id="rId9"/>
+    <hyperlink ref="F45" r:id="rId10"/>
+    <hyperlink ref="F51" r:id="rId11"/>
+    <hyperlink ref="F53" r:id="rId12"/>
+    <hyperlink ref="F59" r:id="rId13"/>
+    <hyperlink ref="F64" r:id="rId14"/>
+    <hyperlink ref="F69" r:id="rId15"/>
+    <hyperlink ref="F74" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId17"/>
